--- a/1002 - 文章中单词字典序和按行号排序/描述文档/Мэн Цзянин_3530904_90002.xlsx
+++ b/1002 - 文章中单词字典序和按行号排序/描述文档/Мэн Цзянин_3530904_90002.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74213BA-71E7-458D-A18D-7E7EC166A6EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F56F6-6A90-4153-AC8C-970185284B2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Спецификация</t>
   </si>
@@ -225,12 +225,39 @@
     <t>art</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Life</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student's</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student's</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,8 +1152,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1284755" y="288298"/>
-          <a:ext cx="17955411" cy="5512399"/>
+          <a:off x="1293720" y="284264"/>
+          <a:ext cx="18089881" cy="5387341"/>
           <a:chOff x="6093029" y="3738191"/>
           <a:chExt cx="18393389" cy="5559501"/>
         </a:xfrm>
@@ -3476,8 +3503,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17772611" y="7902198"/>
-          <a:ext cx="1166356" cy="1337792"/>
+          <a:off x="17907082" y="7724697"/>
+          <a:ext cx="1170838" cy="1309553"/>
           <a:chOff x="18878716" y="7704523"/>
           <a:chExt cx="1171166" cy="1310704"/>
         </a:xfrm>
@@ -4167,15 +4194,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>40710</xdr:colOff>
+      <xdr:colOff>40705</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>135200</xdr:rowOff>
+      <xdr:rowOff>135201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>602165</xdr:colOff>
+      <xdr:colOff>602160</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>28672</xdr:rowOff>
+      <xdr:rowOff>28676</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4190,10 +4217,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="28705357" y="7127671"/>
-          <a:ext cx="2376808" cy="2045001"/>
-          <a:chOff x="23789640" y="7025637"/>
-          <a:chExt cx="2391856" cy="2003477"/>
+          <a:off x="28920505" y="6970341"/>
+          <a:ext cx="2390255" cy="1996595"/>
+          <a:chOff x="23789655" y="7025635"/>
+          <a:chExt cx="2391858" cy="2003479"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -4209,10 +4236,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="23789640" y="7025637"/>
-            <a:ext cx="2391856" cy="1422313"/>
-            <a:chOff x="18912840" y="7010400"/>
-            <a:chExt cx="2391856" cy="1417320"/>
+            <a:off x="23789655" y="7025635"/>
+            <a:ext cx="2391858" cy="1422312"/>
+            <a:chOff x="18912838" y="7010417"/>
+            <a:chExt cx="2391854" cy="1417303"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -4228,8 +4255,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="18912840" y="7696200"/>
-              <a:ext cx="579120" cy="579120"/>
+              <a:off x="18912838" y="7696222"/>
+              <a:ext cx="579120" cy="579122"/>
             </a:xfrm>
             <a:prstGeom prst="flowChartConnector">
               <a:avLst/>
@@ -4285,8 +4312,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="20132040" y="7010400"/>
-              <a:ext cx="579120" cy="579120"/>
+              <a:off x="20132038" y="7010417"/>
+              <a:ext cx="579120" cy="579122"/>
             </a:xfrm>
             <a:prstGeom prst="flowChartConnector">
               <a:avLst/>
@@ -4342,8 +4369,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="20725576" y="7713715"/>
-              <a:ext cx="579120" cy="579120"/>
+              <a:off x="20725572" y="7713734"/>
+              <a:ext cx="579120" cy="579122"/>
             </a:xfrm>
             <a:prstGeom prst="flowChartConnector">
               <a:avLst/>
@@ -4414,7 +4441,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipH="1">
-              <a:off x="19202400" y="7589520"/>
+              <a:off x="19202396" y="7589539"/>
               <a:ext cx="1219200" cy="106680"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -4455,7 +4482,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="20421600" y="7589520"/>
+              <a:off x="20421599" y="7589534"/>
               <a:ext cx="593536" cy="124195"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -4641,15 +4668,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>271826</xdr:colOff>
+      <xdr:colOff>271825</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>119502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>311536</xdr:colOff>
+      <xdr:colOff>311531</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>129538</xdr:rowOff>
+      <xdr:rowOff>129534</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4664,10 +4691,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22280179" y="5498326"/>
-          <a:ext cx="6090886" cy="906506"/>
-          <a:chOff x="21005848" y="5372100"/>
-          <a:chExt cx="6135801" cy="889076"/>
+          <a:off x="22446025" y="5377302"/>
+          <a:ext cx="6135706" cy="886332"/>
+          <a:chOff x="21005851" y="5372100"/>
+          <a:chExt cx="6135798" cy="889072"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4683,7 +4710,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="26250987" y="5372100"/>
+            <a:off x="26250992" y="5372100"/>
             <a:ext cx="579120" cy="581465"/>
           </a:xfrm>
           <a:prstGeom prst="flowChartConnector">
@@ -4755,8 +4782,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="21005848" y="5953565"/>
-            <a:ext cx="5534699" cy="307611"/>
+            <a:off x="21005851" y="5953561"/>
+            <a:ext cx="5534700" cy="307611"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
@@ -4850,8 +4877,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="53890800" y="7173528"/>
-          <a:ext cx="4220583" cy="2040438"/>
+          <a:off x="54289729" y="7012163"/>
+          <a:ext cx="4251960" cy="1996063"/>
           <a:chOff x="18288000" y="7033846"/>
           <a:chExt cx="4251960" cy="2002888"/>
         </a:xfrm>
@@ -5470,8 +5497,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="58731741" y="7161316"/>
-          <a:ext cx="4220583" cy="2045056"/>
+          <a:off x="59166529" y="7003985"/>
+          <a:ext cx="4251960" cy="1996647"/>
           <a:chOff x="23164800" y="7025640"/>
           <a:chExt cx="4251960" cy="2003474"/>
         </a:xfrm>
@@ -6086,8 +6113,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="55994747" y="2072095"/>
-          <a:ext cx="9061525" cy="2807746"/>
+          <a:off x="56411606" y="2027720"/>
+          <a:ext cx="9128760" cy="2743200"/>
           <a:chOff x="18288000" y="6284155"/>
           <a:chExt cx="9128760" cy="2752579"/>
         </a:xfrm>
@@ -7510,8 +7537,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31121283" y="4604705"/>
-          <a:ext cx="1775808" cy="2597456"/>
+          <a:off x="31354365" y="4503852"/>
+          <a:ext cx="1784773" cy="2536944"/>
           <a:chOff x="37050533" y="4440852"/>
           <a:chExt cx="1779607" cy="2620247"/>
         </a:xfrm>
@@ -7966,8 +7993,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23533147" y="7772534"/>
-          <a:ext cx="3919453" cy="2965388"/>
+          <a:off x="23707959" y="7599067"/>
+          <a:ext cx="3946347" cy="2900842"/>
           <a:chOff x="25380815" y="7585421"/>
           <a:chExt cx="3956979" cy="2932031"/>
         </a:xfrm>
@@ -8766,8 +8793,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1418928" y="1959990"/>
-          <a:ext cx="12103108" cy="5854202"/>
+          <a:off x="1418928" y="2025304"/>
+          <a:ext cx="12103108" cy="6050145"/>
           <a:chOff x="1027043" y="1970876"/>
           <a:chExt cx="12103108" cy="5854202"/>
         </a:xfrm>
@@ -10381,7 +10408,7 @@
       <xdr:col>42</xdr:col>
       <xdr:colOff>578865</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>1919</xdr:rowOff>
+      <xdr:rowOff>1918</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10396,10 +10423,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14059395" y="2007951"/>
-          <a:ext cx="12122670" cy="7747568"/>
+          <a:off x="14059395" y="2073265"/>
+          <a:ext cx="12122670" cy="8014762"/>
           <a:chOff x="14059395" y="2007951"/>
-          <a:chExt cx="12122670" cy="7747568"/>
+          <a:chExt cx="12122670" cy="7747567"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -11329,7 +11356,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>addRowNum()</a:t>
+              <a:t>_addRowNum_()</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -11394,7 +11421,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>makeWordTree()</a:t>
+              <a:t>_makeWordTree_()</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -11417,7 +11444,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="18064465" y="9374519"/>
+            <a:off x="18064465" y="9374518"/>
             <a:ext cx="3570514" cy="381000"/>
           </a:xfrm>
           <a:prstGeom prst="round2SameRect">
@@ -11456,10 +11483,29 @@
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
                 <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>_inOrderOnScreen_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>foreachTreeLDRonScreen(this-&gt;root_, repetitive_word);</a:t>
+              <a:t>this-&gt;root_, repetitive_word);</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -11521,10 +11567,29 @@
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
                 <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>_inOrderOutputInFile_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>foreachTreeLDROutputInFile(this-&gt;root_, ofs, repetitive_word)</a:t>
+              <a:t>this-&gt;root_, ofs, repetitive_word)</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -11547,10 +11612,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="23418104" y="4886339"/>
-            <a:ext cx="2405604" cy="1225668"/>
+            <a:off x="23418104" y="4886333"/>
+            <a:ext cx="2405604" cy="1217754"/>
             <a:chOff x="23556649" y="5385104"/>
-            <a:chExt cx="2405604" cy="1267231"/>
+            <a:chExt cx="2405604" cy="1259050"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -11617,9 +11682,9 @@
             </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="24755076" y="5713965"/>
-              <a:ext cx="4375" cy="545495"/>
+            <a:xfrm>
+              <a:off x="24759451" y="5713969"/>
+              <a:ext cx="7553" cy="537312"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -11659,8 +11724,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="23704605" y="6259460"/>
-              <a:ext cx="2100942" cy="392875"/>
+              <a:off x="23656271" y="6251279"/>
+              <a:ext cx="2221465" cy="392875"/>
             </a:xfrm>
             <a:prstGeom prst="round2SameRect">
               <a:avLst/>
@@ -11701,7 +11766,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>searchWordInTree(word_search)</a:t>
+                <a:t>_searchWordInTree_(word_search)</a:t>
               </a:r>
               <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
                 <a:solidFill>
@@ -11879,7 +11944,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>deleteNodeBinarySearchTree(dele_word)</a:t>
+                <a:t>_deleteNodeBinarySearchTree_(dele_word)</a:t>
               </a:r>
               <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
                 <a:solidFill>
@@ -12294,11 +12359,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7DA843-8F24-4EED-B546-F936FFCB7174}">
   <dimension ref="AE29:BC63"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="AC19" zoomScale="68" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="AJ26" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="AJ57" sqref="AJ57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="29" width="8.88671875" style="20"/>
     <col min="30" max="30" width="3.33203125" style="20" customWidth="1"/>
@@ -12330,7 +12395,7 @@
     <col min="56" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="29" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="31:55" s="19" customFormat="1">
       <c r="AE29" s="23"/>
       <c r="AG29" s="23"/>
       <c r="AI29" s="23"/>
@@ -12345,7 +12410,7 @@
       <c r="BA29" s="23"/>
       <c r="BC29" s="23"/>
     </row>
-    <row r="30" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="31:55" s="19" customFormat="1">
       <c r="AE30" s="23"/>
       <c r="AG30" s="23"/>
       <c r="AI30" s="23"/>
@@ -12360,7 +12425,7 @@
       <c r="BA30" s="23"/>
       <c r="BC30" s="23"/>
     </row>
-    <row r="31" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="31:55" s="19" customFormat="1">
       <c r="AE31" s="23"/>
       <c r="AG31" s="23"/>
       <c r="AI31" s="23"/>
@@ -12375,7 +12440,7 @@
       <c r="BA31" s="23"/>
       <c r="BC31" s="23"/>
     </row>
-    <row r="32" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="31:55" s="19" customFormat="1">
       <c r="AE32" s="23"/>
       <c r="AG32" s="23"/>
       <c r="AI32" s="23"/>
@@ -12390,7 +12455,7 @@
       <c r="BA32" s="23"/>
       <c r="BC32" s="23"/>
     </row>
-    <row r="33" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="31:55" s="19" customFormat="1">
       <c r="AE33" s="23"/>
       <c r="AG33" s="23"/>
       <c r="AI33" s="23"/>
@@ -12405,7 +12470,7 @@
       <c r="BA33" s="23"/>
       <c r="BC33" s="23"/>
     </row>
-    <row r="34" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="31:55" s="19" customFormat="1">
       <c r="AE34" s="23"/>
       <c r="AG34" s="23"/>
       <c r="AI34" s="23"/>
@@ -12420,7 +12485,7 @@
       <c r="BA34" s="23"/>
       <c r="BC34" s="23"/>
     </row>
-    <row r="35" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="31:55" s="19" customFormat="1">
       <c r="AE35" s="23"/>
       <c r="AG35" s="23"/>
       <c r="AI35" s="23"/>
@@ -12435,7 +12500,7 @@
       <c r="BA35" s="23"/>
       <c r="BC35" s="23"/>
     </row>
-    <row r="36" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="31:55" s="19" customFormat="1">
       <c r="AE36" s="23"/>
       <c r="AG36" s="23"/>
       <c r="AI36" s="23"/>
@@ -12450,7 +12515,7 @@
       <c r="BA36" s="23"/>
       <c r="BC36" s="23"/>
     </row>
-    <row r="37" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="31:55" s="19" customFormat="1">
       <c r="AE37" s="23"/>
       <c r="AG37" s="23"/>
       <c r="AI37" s="23"/>
@@ -12465,7 +12530,7 @@
       <c r="BA37" s="23"/>
       <c r="BC37" s="23"/>
     </row>
-    <row r="38" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="31:55" s="19" customFormat="1">
       <c r="AE38" s="23"/>
       <c r="AG38" s="23"/>
       <c r="AI38" s="23"/>
@@ -12480,7 +12545,7 @@
       <c r="BA38" s="23"/>
       <c r="BC38" s="23"/>
     </row>
-    <row r="39" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="31:55" s="19" customFormat="1">
       <c r="AE39" s="23"/>
       <c r="AG39" s="23"/>
       <c r="AI39" s="23"/>
@@ -12495,7 +12560,7 @@
       <c r="BA39" s="23"/>
       <c r="BC39" s="23"/>
     </row>
-    <row r="40" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="31:55" s="19" customFormat="1">
       <c r="AE40" s="23"/>
       <c r="AG40" s="23"/>
       <c r="AI40" s="23"/>
@@ -12510,7 +12575,7 @@
       <c r="BA40" s="23"/>
       <c r="BC40" s="23"/>
     </row>
-    <row r="41" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="31:55" s="19" customFormat="1">
       <c r="AE41" s="23"/>
       <c r="AG41" s="23"/>
       <c r="AI41" s="23"/>
@@ -12525,7 +12590,7 @@
       <c r="BA41" s="23"/>
       <c r="BC41" s="23"/>
     </row>
-    <row r="42" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="31:55" s="19" customFormat="1">
       <c r="AE42" s="23"/>
       <c r="AG42" s="23"/>
       <c r="AI42" s="23"/>
@@ -12540,7 +12605,7 @@
       <c r="BA42" s="23"/>
       <c r="BC42" s="23"/>
     </row>
-    <row r="43" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="31:55" s="19" customFormat="1">
       <c r="AE43" s="23"/>
       <c r="AG43" s="23"/>
       <c r="AI43" s="23"/>
@@ -12555,7 +12620,7 @@
       <c r="BA43" s="23"/>
       <c r="BC43" s="23"/>
     </row>
-    <row r="44" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="31:55" s="19" customFormat="1">
       <c r="AE44" s="23"/>
       <c r="AG44" s="23"/>
       <c r="AI44" s="23"/>
@@ -12570,7 +12635,7 @@
       <c r="BA44" s="23"/>
       <c r="BC44" s="23"/>
     </row>
-    <row r="45" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="31:55" s="19" customFormat="1">
       <c r="AE45" s="23"/>
       <c r="AG45" s="23"/>
       <c r="AI45" s="23"/>
@@ -12585,7 +12650,7 @@
       <c r="BA45" s="23"/>
       <c r="BC45" s="23"/>
     </row>
-    <row r="46" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="31:55" s="19" customFormat="1">
       <c r="AE46" s="23"/>
       <c r="AG46" s="23"/>
       <c r="AI46" s="23"/>
@@ -12600,7 +12665,7 @@
       <c r="BA46" s="23"/>
       <c r="BC46" s="23"/>
     </row>
-    <row r="47" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="31:55" s="19" customFormat="1">
       <c r="AE47" s="23"/>
       <c r="AG47" s="23"/>
       <c r="AI47" s="23"/>
@@ -12615,7 +12680,7 @@
       <c r="BA47" s="23"/>
       <c r="BC47" s="23"/>
     </row>
-    <row r="48" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="31:55" s="19" customFormat="1">
       <c r="AE48" s="23"/>
       <c r="AG48" s="23"/>
       <c r="AI48" s="23"/>
@@ -12630,7 +12695,7 @@
       <c r="BA48" s="23"/>
       <c r="BC48" s="23"/>
     </row>
-    <row r="49" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="31:55" s="19" customFormat="1">
       <c r="AE49" s="23"/>
       <c r="AG49" s="23"/>
       <c r="AI49" s="23"/>
@@ -12645,7 +12710,7 @@
       <c r="BA49" s="23"/>
       <c r="BC49" s="23"/>
     </row>
-    <row r="50" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="31:55" s="19" customFormat="1">
       <c r="AE50" s="23"/>
       <c r="AG50" s="23"/>
       <c r="AI50" s="23"/>
@@ -12660,7 +12725,7 @@
       <c r="BA50" s="23"/>
       <c r="BC50" s="23"/>
     </row>
-    <row r="51" spans="31:55" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="31:55" s="19" customFormat="1">
       <c r="AE51" s="23"/>
       <c r="AG51" s="23"/>
       <c r="AI51" s="23"/>
@@ -12675,7 +12740,7 @@
       <c r="BA51" s="23"/>
       <c r="BC51" s="23"/>
     </row>
-    <row r="63" spans="31:55" s="21" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="31:55" s="21" customFormat="1" ht="26.4" customHeight="1">
       <c r="AE63" s="24" t="s">
         <v>22</v>
       </c>
@@ -12763,11 +12828,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D9D24B-FCDE-4C1B-9E07-2325E20CC54D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K51" sqref="K50:K51"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="Q12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO42" sqref="AO42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12784,7 +12849,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
@@ -12798,8 +12863,8 @@
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="18.600000000000001" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:13" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -12825,7 +12890,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="2:13" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -12851,7 +12916,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -12867,7 +12932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -12883,7 +12948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -12899,7 +12964,7 @@
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="2:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B7" s="2">
         <v>1</v>
       </c>
@@ -12915,7 +12980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -12947,20 +13012,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FA8140-9F7A-452E-B060-748157A0451D}">
-  <dimension ref="D2:F6"/>
+  <dimension ref="D2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.21875" defaultRowHeight="28.8" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="18.21875" style="28"/>
-    <col min="5" max="5" width="8.44140625" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="18.21875" style="28"/>
+    <col min="5" max="5" width="7.109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="28"/>
+    <col min="7" max="7" width="8.33203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="28"/>
+    <col min="9" max="9" width="7.109375" style="28" customWidth="1"/>
+    <col min="10" max="16384" width="18.21875" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:10" ht="28.8" customHeight="1">
       <c r="D2" s="28" t="s">
         <v>47</v>
       </c>
@@ -12971,7 +13040,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="4:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:10" ht="28.8" customHeight="1">
       <c r="D3" s="28" t="s">
         <v>48</v>
       </c>
@@ -12982,7 +13051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:10" ht="28.8" customHeight="1">
       <c r="D4" s="28" t="s">
         <v>49</v>
       </c>
@@ -12993,7 +13062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:10" ht="28.8" customHeight="1">
       <c r="D5" s="28" t="s">
         <v>51</v>
       </c>
@@ -13004,7 +13073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10" ht="28.8" customHeight="1">
       <c r="D6" s="28" t="s">
         <v>50</v>
       </c>
@@ -13015,6 +13084,46 @@
         <v>57</v>
       </c>
     </row>
+    <row r="9" spans="4:10" ht="28.8" customHeight="1">
+      <c r="D9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" ht="28.8" customHeight="1">
+      <c r="D10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1002 - 文章中单词字典序和按行号排序/描述文档/Мэн Цзянин_3530904_90002.xlsx
+++ b/1002 - 文章中单词字典序和按行号排序/描述文档/Мэн Цзянин_3530904_90002.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F56F6-6A90-4153-AC8C-970185284B2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F730038-C58F-4E51-9A0A-9C98DA02D9D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="3" r:id="rId1"/>
     <sheet name="BinarySearchTree.hpp" sheetId="2" r:id="rId2"/>
-    <sheet name="Error" sheetId="1" r:id="rId3"/>
-    <sheet name="Change letter" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Error" sheetId="1" r:id="rId4"/>
+    <sheet name="Change letter" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Спецификация</t>
   </si>
@@ -252,12 +253,61 @@
     <t>student</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Алгоритм</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Последовательный запрос                                                                                     (неупорядоченный связанный список)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Бинарный поиск                                                                                   (упорядоченный массив)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Бинарное дерево поиска</t>
+  </si>
+  <si>
+    <t>вставлять</t>
+  </si>
+  <si>
+    <t>найти</t>
+  </si>
+  <si>
+    <t>найти успех</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Средняя ситуация</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Худшая ситуация</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.39lgN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +359,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -324,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -611,11 +668,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -733,6 +923,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12828,7 +13063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D9D24B-FCDE-4C1B-9E07-2325E20CC54D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="Q12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="Q12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AO42" sqref="AO42"/>
     </sheetView>
   </sheetViews>
@@ -12842,6 +13077,114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15E1B53-0837-46D2-816C-C05EC2A7D3D7}">
+  <dimension ref="D7:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="35.4" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="14.21875" style="20"/>
+    <col min="3" max="3" width="12.88671875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="14.21875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8" ht="35.4" customHeight="1" thickBot="1"/>
+    <row r="8" spans="4:8" ht="35.4" customHeight="1">
+      <c r="D8" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="4:8" ht="35.4" customHeight="1" thickBot="1">
+      <c r="D9" s="46"/>
+      <c r="E9" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="35.4" customHeight="1" thickTop="1">
+      <c r="D10" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="35.4" customHeight="1">
+      <c r="D11" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="35.4" customHeight="1" thickBot="1">
+      <c r="D12" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M8"/>
   <sheetViews>
@@ -13010,7 +13353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FA8140-9F7A-452E-B060-748157A0451D}">
   <dimension ref="D2:J10"/>
   <sheetViews>

--- a/1002 - 文章中单词字典序和按行号排序/描述文档/Мэн Цзянин_3530904_90002.xlsx
+++ b/1002 - 文章中单词字典序和按行号排序/描述文档/Мэн Цзянин_3530904_90002.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F730038-C58F-4E51-9A0A-9C98DA02D9D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2496BB9D-B8D5-4C35-B1E5-56F5BFE3E0F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree" sheetId="3" r:id="rId1"/>
     <sheet name="BinarySearchTree.hpp" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Сложность в О-символике" sheetId="5" r:id="rId3"/>
     <sheet name="Error" sheetId="1" r:id="rId4"/>
     <sheet name="Change letter" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>Спецификация</t>
   </si>
@@ -302,6 +302,25 @@
     <t>1.39lgN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>В худшем случае</t>
+  </si>
+  <si>
+    <t>Расход памяти</t>
+  </si>
+  <si>
+    <t>Поиск</t>
+  </si>
+  <si>
+    <t>Вставка</t>
+  </si>
+  <si>
+    <t>Удаление</t>
+  </si>
+  <si>
+    <t>В среднем</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -381,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -801,11 +820,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -891,6 +925,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -924,49 +1003,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13078,10 +13121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15E1B53-0837-46D2-816C-C05EC2A7D3D7}">
-  <dimension ref="D7:H12"/>
+  <dimension ref="D7:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" zoomScale="119" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="35.4" customHeight="1"/>
@@ -13089,87 +13132,135 @@
     <col min="1" max="2" width="14.21875" style="20"/>
     <col min="3" max="3" width="12.88671875" style="20" customWidth="1"/>
     <col min="4" max="4" width="37.77734375" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="14.21875" style="20"/>
+    <col min="5" max="10" width="14.21875" style="20"/>
+    <col min="11" max="11" width="21.109375" style="20" customWidth="1"/>
+    <col min="12" max="13" width="19.77734375" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="14.21875" style="20"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="35.4" customHeight="1" thickBot="1"/>
-    <row r="8" spans="4:8" ht="35.4" customHeight="1">
-      <c r="D8" s="43" t="s">
+    <row r="7" spans="4:13" ht="35.4" customHeight="1" thickBot="1"/>
+    <row r="8" spans="4:13" ht="35.4" customHeight="1" thickBot="1">
+      <c r="D8" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="45"/>
+      <c r="H8" s="41"/>
+      <c r="K8" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" spans="4:8" ht="35.4" customHeight="1" thickBot="1">
-      <c r="D9" s="46"/>
-      <c r="E9" s="42" t="s">
+    <row r="9" spans="4:13" ht="35.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="D9" s="43"/>
+      <c r="E9" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="4:8" ht="35.4" customHeight="1" thickTop="1">
-      <c r="D10" s="48" t="s">
-        <v>66</v>
+      <c r="K9" s="33" t="s">
+        <v>79</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="L9" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="49" t="s">
+      <c r="M9" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="4:8" ht="35.4" customHeight="1">
-      <c r="D11" s="50" t="s">
+    <row r="10" spans="4:13" ht="35.4" customHeight="1" thickTop="1">
+      <c r="D10" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" ht="35.4" customHeight="1">
+      <c r="D11" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="36" t="s">
         <v>76</v>
       </c>
+      <c r="K11" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="12" spans="4:8" ht="35.4" customHeight="1" thickBot="1">
-      <c r="D12" s="52" t="s">
+    <row r="12" spans="4:13" ht="35.4" customHeight="1" thickBot="1">
+      <c r="D12" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="39" t="s">
         <v>77</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -13237,14 +13328,14 @@
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="13"/>
@@ -13263,10 +13354,10 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="35"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="13"/>
       <c r="H4" s="17" t="s">
         <v>11</v>
@@ -13279,15 +13370,15 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="35"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="45" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13295,31 +13386,31 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="50" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="2:13" ht="18.600000000000001" customHeight="1">
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="45" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13327,13 +13418,13 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="9">
